--- a/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
@@ -108,6 +108,28 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">title初步人选推荐提名表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（“stage”阶段，党支部用）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
+    2.对type候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>2017年</t>
     </r>
     <r>
@@ -119,7 +141,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">  9  </t>
     </r>
     <r>
       <rPr>
@@ -152,28 +174,6 @@
       </rPr>
       <t xml:space="preserve">日    </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">title初步人选推荐提名表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党支部用）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
-    2.对type候选人初步人选赞成的，在“推荐意见”栏划“O”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
@@ -843,7 +843,7 @@
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="9" spans="1:13" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
@@ -22,15 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>工作证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +48,6 @@
   </si>
   <si>
     <t>职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生年月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,10 +65,6 @@
   <si>
     <t>另选他人
 姓名</t>
-  </si>
-  <si>
-    <t>党委委员候选人初步人选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -104,28 +92,6 @@
       </rPr>
       <t>`</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">title初步人选推荐提名表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党支部用）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
-    2.对type候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,6 +142,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>title初步人选推荐提名表
+（“stage”阶段，党支部用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
+    2.对type候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +200,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="华文中宋"/>
       <family val="3"/>
@@ -788,31 +757,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="34.625" style="11" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="8" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="35" style="11" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -821,12 +788,10 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -837,13 +802,11 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -854,33 +817,27 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>12</v>
+      <c r="H4" s="29"/>
+      <c r="I4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -891,50 +848,40 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="25"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I7" s="11"/>
-      <c r="J7"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="11"/>
+      <c r="H7"/>
     </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -944,12 +891,10 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -959,20 +904,18 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -75,9 +75,10 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                </t>
     </r>
@@ -86,9 +87,10 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>`</t>
     </r>
@@ -103,9 +105,10 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  9  </t>
     </r>
@@ -113,9 +116,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>月</t>
     </r>
@@ -124,9 +128,10 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -134,9 +139,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">日    </t>
     </r>
@@ -150,6 +156,10 @@
   <si>
     <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
     2.对type候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type候选人初步人选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +183,28 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,35 +223,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -390,91 +417,89 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,20 +784,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="8" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="35" style="11" customWidth="1"/>
-    <col min="9" max="10" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="14" customWidth="1"/>
+    <col min="8" max="8" width="35" style="15" customWidth="1"/>
+    <col min="9" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -802,7 +828,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -817,13 +843,15 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="15"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -837,47 +865,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" s="11"/>
-      <c r="H7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">

--- a/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4ED85B-BD00-4BE2-8CE2-F87AB32E39C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -65,6 +66,20 @@
   <si>
     <t>另选他人
 姓名</t>
+  </si>
+  <si>
+    <t>title初步人选推荐提名表
+（“stage”阶段，党支部用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
+    2.对type候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type候选人初步人选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -94,23 +109,10 @@
       </rPr>
       <t>`</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2017年</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  9  </t>
+      <t xml:space="preserve">  年   月   日</t>
     </r>
     <r>
       <rPr>
@@ -121,52 +123,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">日    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title初步人选推荐提名表
-（“stage”阶段，党支部用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：1.请在以下名单中，推荐type候选人初步人选count名。
-    2.对type候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type候选人初步人选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -415,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,9 +426,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,11 +743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,71 +764,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="22" t="s">
+      <c r="B4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -888,8 +850,8 @@
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
@@ -911,7 +873,7 @@
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -923,17 +885,17 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-1-1_6.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4ED85B-BD00-4BE2-8CE2-F87AB32E39C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -41,10 +40,6 @@
   </si>
   <si>
     <t>入党时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,11 +122,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -743,11 +742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -779,7 +778,7 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -794,7 +793,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -812,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -821,10 +820,10 @@
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
       <c r="I4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -839,16 +838,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="24"/>
@@ -873,7 +872,7 @@
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -886,7 +885,7 @@
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
